--- a/public/lcad-evaluation/assets/data/LCA/Design A/Process contribution A - Characterization.XLSX
+++ b/public/lcad-evaluation/assets/data/LCA/Design A/Process contribution A - Characterization.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="XLSReadWriteII" lastEdited="4" lowestEdited="4" rupBuild="4.00.38"/>
   <sheets>
-    <sheet name="Sheet4" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet7" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -45,9 +45,6 @@
     <t>Sort order: </t>
   </si>
   <si>
-    <t>Induction Hardening Bearing Surface 1</t>
-  </si>
-  <si>
     <t>Analyze</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>0 %</t>
+  </si>
+  <si>
+    <t>Induction Hardening Bearing Surfaces 1, 2</t>
   </si>
   <si>
     <t>Total</t>
@@ -530,24 +530,24 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="1">
-        <v>45571</v>
+        <v>45572</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="2">
-        <v>0.578866354166667</v>
+        <v>0.810595706018518</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
@@ -558,15 +558,15 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -606,7 +606,7 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -649,28 +649,28 @@
         <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
         <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
         <v>35</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T17" t="s">
         <v>45</v>
@@ -706,13 +706,13 @@
         <v>33</v>
       </c>
       <c r="V17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X17" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -729,7 +729,7 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <v>212.631321243125</v>
+        <v>173.688803990365</v>
       </c>
       <c r="F18">
         <v>63.9589323653056</v>
@@ -786,7 +786,7 @@
         <v>0.00859644008161318</v>
       </c>
       <c r="X18">
-        <v>73.0172198489251</v>
+        <v>34.074702596165</v>
       </c>
     </row>
     <row r="19">
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -942,7 +942,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
@@ -951,7 +951,7 @@
         <v>32</v>
       </c>
       <c r="E21">
-        <v>73.0172198489251</v>
+        <v>34.074702596165</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>73.0172198489251</v>
+        <v>34.074702596165</v>
       </c>
     </row>
     <row r="22">
@@ -1090,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -1164,7 +1164,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -1534,7 +1534,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -1756,7 +1756,7 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>

--- a/public/lcad-evaluation/assets/data/LCA/Design A/Process contribution A - Characterization.XLSX
+++ b/public/lcad-evaluation/assets/data/LCA/Design A/Process contribution A - Characterization.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="XLSReadWriteII" lastEdited="4" lowestEdited="4" rupBuild="4.00.38"/>
   <sheets>
-    <sheet name="Sheet7" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -12,25 +12,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
   <si>
-    <t>Turning Chamfers 1, 2, 3, 4, 5, 7</t>
-  </si>
-  <si>
-    <t>Turning Surface 1</t>
-  </si>
-  <si>
-    <t>Turning Surface 7</t>
-  </si>
-  <si>
-    <t>Turning Top Hole</t>
-  </si>
-  <si>
-    <t>Turning Groove 2</t>
+    <t>Turning 11</t>
+  </si>
+  <si>
+    <t>Milling</t>
   </si>
   <si>
     <t>SimaPro 8.5.2.0</t>
   </si>
   <si>
-    <t>Turning Surface 4, Face 4, Bearing Surface 1</t>
+    <t>Turning 13</t>
   </si>
   <si>
     <t>No</t>
@@ -42,6 +33,9 @@
     <t>Exclude infrastructure processes: </t>
   </si>
   <si>
+    <t>Turning 4</t>
+  </si>
+  <si>
     <t>Sort order: </t>
   </si>
   <si>
@@ -51,37 +45,43 @@
     <t>Process contribution</t>
   </si>
   <si>
-    <t>Grinding Bearing Surfaces 1, 2</t>
+    <t>Turning 8</t>
+  </si>
+  <si>
+    <t>Turning 6</t>
+  </si>
+  <si>
+    <t>Turning 2</t>
   </si>
   <si>
     <t>Results: </t>
   </si>
   <si>
-    <t>Turning Fillets 1, 2, 3, 4, 5, 6, 7, 8, 9</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
+    <t>Turning 10</t>
+  </si>
+  <si>
     <t>Primary Production Steel Billet</t>
   </si>
   <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>Turning Groove 1</t>
-  </si>
-  <si>
-    <t>Turning Surface 2, Face 2</t>
-  </si>
-  <si>
-    <t>Turning Chamfer 6</t>
+    <t>Induction Hardening</t>
+  </si>
+  <si>
+    <t>Turning 14</t>
   </si>
   <si>
     <t>0 %</t>
   </si>
   <si>
-    <t>Induction Hardening Bearing Surfaces 1, 2</t>
+    <t>Drilling</t>
+  </si>
+  <si>
+    <t>Turning 12</t>
   </si>
   <si>
     <t>Total</t>
@@ -93,16 +93,13 @@
     <t>1 p Screw Pump Shaft (of project Screw Pump Shaft)</t>
   </si>
   <si>
-    <t>Turning Surface 6</t>
-  </si>
-  <si>
     <t>Exclude long-term emissions: </t>
   </si>
   <si>
     <t>Sorted on item: </t>
   </si>
   <si>
-    <t>Turning Surface 5, Face 5, Bearing Surface 2</t>
+    <t>Turning 1</t>
   </si>
   <si>
     <t>ReCiPe 2016 Midpoint (H) V1.00</t>
@@ -111,15 +108,9 @@
     <t>kg CO2 eq</t>
   </si>
   <si>
-    <t>Milling Keyway</t>
-  </si>
-  <si>
     <t>Total of all processes</t>
   </si>
   <si>
-    <t>Turning Face 3</t>
-  </si>
-  <si>
     <t>Indicator: </t>
   </si>
   <si>
@@ -135,6 +126,12 @@
     <t>Cut-off: </t>
   </si>
   <si>
+    <t>Surface Grinding</t>
+  </si>
+  <si>
+    <t>Turning 5</t>
+  </si>
+  <si>
     <t>Category: </t>
   </si>
   <si>
@@ -144,19 +141,22 @@
     <t>Calculation: </t>
   </si>
   <si>
+    <t>Turning 3</t>
+  </si>
+  <si>
     <t>Screw Pump Shaft</t>
   </si>
   <si>
-    <t>Drilling Bushing Holes</t>
-  </si>
-  <si>
     <t>Ascending</t>
   </si>
   <si>
+    <t>Turning 7</t>
+  </si>
+  <si>
+    <t>Turning 9</t>
+  </si>
+  <si>
     <t>Process</t>
-  </si>
-  <si>
-    <t>Turning Face 1</t>
   </si>
   <si>
     <t/>
@@ -527,27 +527,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45574</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1">
-        <v>45572</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="2">
-        <v>0.810595706018518</v>
+        <v>0.877565868055556</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
@@ -555,10 +555,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -566,12 +566,12 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -582,74 +582,74 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -661,58 +661,58 @@
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s">
+        <v>22</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
         <v>20</v>
       </c>
-      <c r="I17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="W17" t="s">
+        <v>38</v>
+      </c>
+      <c r="X17" t="s">
         <v>19</v>
-      </c>
-      <c r="K17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O17" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S17" t="s">
-        <v>15</v>
-      </c>
-      <c r="T17" t="s">
-        <v>45</v>
-      </c>
-      <c r="U17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V17" t="s">
-        <v>21</v>
-      </c>
-      <c r="W17" t="s">
-        <v>13</v>
-      </c>
-      <c r="X17" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -720,13 +720,13 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>173.688803990365</v>
@@ -794,13 +794,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0.607949409379297</v>
@@ -868,16 +868,16 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20">
-        <v>0.00859644008161318</v>
+        <v>34.074702596165</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -931,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0.00859644008161318</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>34.074702596165</v>
       </c>
     </row>
     <row r="21">
@@ -942,16 +942,16 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21">
-        <v>34.074702596165</v>
+        <v>0.147161586307053</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>0.147161586307053</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>34.074702596165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1016,19 +1016,19 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22">
-        <v>0.147161586307053</v>
+        <v>63.9589323653056</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>63.9589323653056</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0.147161586307053</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -1090,19 +1090,19 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23">
-        <v>63.9589323653056</v>
+        <v>0.00859644008161318</v>
       </c>
       <c r="F23">
-        <v>63.9589323653056</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>0.00859644008161318</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -1164,22 +1164,22 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24">
-        <v>0.00325209278665893</v>
+        <v>5.33933131517552</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>5.33933131517552</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>0.00325209278665893</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -1238,16 +1238,16 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25">
-        <v>0.0199663371087897</v>
+        <v>0.572368330451972</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1280,13 +1280,13 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.572368330451972</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>0.0199663371087897</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -1312,22 +1312,22 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26">
-        <v>5.33933131517552</v>
+        <v>5.93257354351395</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>5.33933131517552</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>5.93257354351395</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -1386,16 +1386,16 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27">
-        <v>18.5500128851674</v>
+        <v>0.0199663371087897</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>18.5500128851674</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>0.0199663371087897</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28">
         <v>0.0336553788386796</v>
@@ -1534,16 +1534,16 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29">
-        <v>0.366200773790757</v>
+        <v>0.00325209278665893</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.366200773790757</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>0.00325209278665893</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -1608,16 +1608,16 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30">
-        <v>0.0238991004787029</v>
+        <v>1.66272697476039</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1.66272697476039</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.0238991004787029</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -1682,13 +1682,13 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31">
         <v>0.00325209278665893</v>
@@ -1756,16 +1756,16 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32">
-        <v>1.66272697476039</v>
+        <v>0.366200773790757</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1.66272697476039</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>0.366200773790757</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33">
-        <v>36.5278087000123</v>
+        <v>18.5500128851674</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1857,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>18.5500128851674</v>
       </c>
       <c r="L33">
-        <v>36.5278087000123</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -1904,16 +1904,16 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34">
-        <v>5.68617079237593</v>
+        <v>36.5278087000123</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>36.5278087000123</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>5.68617079237593</v>
+        <v>0</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -1978,16 +1978,16 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35">
-        <v>0.170243275878355</v>
+        <v>0.0238991004787029</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>0.0238991004787029</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>0.170243275878355</v>
+        <v>0</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36">
-        <v>0.572368330451972</v>
+        <v>5.68617079237593</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2088,13 +2088,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>5.68617079237593</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0.572368330451972</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2126,16 +2126,16 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37">
-        <v>5.93257354351395</v>
+        <v>0.170243275878355</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.170243275878355</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>5.93257354351395</v>
+        <v>0</v>
       </c>
       <c r="R37">
         <v>0</v>
